--- a/chatBot/digitalgrow.xlsx
+++ b/chatBot/digitalgrow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbrinza/Downloads/all-in-one/proiecte/DigitalGrow/chatBot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbrinza/Downloads/Digital/chatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F286334-390F-974D-92E4-91C5F4D2188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B56F90-0A7C-5D46-9330-66EEDDF9638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +339,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -390,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -423,6 +430,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,7 +967,7 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -977,7 +987,7 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -997,7 +1007,7 @@
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1245,7 +1255,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
